--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2001.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2001.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168068558566806</v>
+        <v>0.89420086145401</v>
       </c>
       <c r="B1">
-        <v>2.274755115784587</v>
+        <v>2.951676607131958</v>
       </c>
       <c r="C1">
-        <v>8.111054054101636</v>
+        <v>7.009454727172852</v>
       </c>
       <c r="D1">
-        <v>2.485893536378269</v>
+        <v>2.019955635070801</v>
       </c>
       <c r="E1">
-        <v>1.216383756105268</v>
+        <v>1.406994462013245</v>
       </c>
     </row>
   </sheetData>
